--- a/AnalysisFinalCor.xlsx
+++ b/AnalysisFinalCor.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/Cavendish/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19016\Documents\Github\Cavendish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABECFC2E-E419-4C43-A9FF-C0177485511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C4991-DA87-426B-8D54-A599C9511331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1D68DD74-590A-9A42-9F0F-02A85E27BCAD}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{1D68DD74-590A-9A42-9F0F-02A85E27BCAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,16 +507,16 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -539,7 +539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>55.216639999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,7 +608,7 @@
         <v>55.180039999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +643,7 @@
         <v>54.919960000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>55.105546666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0.11403389277691586</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>26.954999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -755,7 +755,7 @@
         <v>149.76689999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
         <v>30</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.17900958998459535</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>29</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2.2410374569292589E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>34</v>
       </c>
@@ -782,12 +782,12 @@
         <v>2.5323723263300604E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -800,7 +800,7 @@
         <v>8.6173048301739531E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -813,7 +813,7 @@
         <v>9.1695009214449869E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -822,7 +822,7 @@
         <v>6.6742999999999994E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0.68532521785709943</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
